--- a/app/3.xlsx
+++ b/app/3.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkapat\Desktop\HRCI\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\HRCI\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22657889-85F4-426C-97E8-01BE6C586F39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60131DCA-2C29-4B97-9086-D17A5186C4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,26 +31,164 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>15 ธันวาคม 2562</t>
-  </si>
-  <si>
-    <t>inet 3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>10.30 น.</t>
+  </si>
+  <si>
+    <t>61448</t>
+  </si>
+  <si>
+    <t>61496</t>
+  </si>
+  <si>
+    <t>58171</t>
+  </si>
+  <si>
+    <t>60411</t>
+  </si>
+  <si>
+    <t>62770</t>
+  </si>
+  <si>
+    <t>60043</t>
+  </si>
+  <si>
+    <t>61372</t>
+  </si>
+  <si>
+    <t>58172</t>
+  </si>
+  <si>
+    <t>61089</t>
+  </si>
+  <si>
+    <t>60097</t>
+  </si>
+  <si>
+    <t>60202</t>
+  </si>
+  <si>
+    <t>60369</t>
+  </si>
+  <si>
+    <t>61037</t>
+  </si>
+  <si>
+    <t>60177</t>
+  </si>
+  <si>
+    <t>60105</t>
+  </si>
+  <si>
+    <t>60242</t>
+  </si>
+  <si>
+    <t>61198</t>
+  </si>
+  <si>
+    <t>61187</t>
+  </si>
+  <si>
+    <t>09.30 น.</t>
+  </si>
+  <si>
+    <t>09.45 น.</t>
+  </si>
+  <si>
+    <t>10.00 น.</t>
+  </si>
+  <si>
+    <t>10.15 น.</t>
+  </si>
+  <si>
+    <t>10.45 น.</t>
+  </si>
+  <si>
+    <t>13.30 น.</t>
+  </si>
+  <si>
+    <t>13.45 น.</t>
+  </si>
+  <si>
+    <t>14.00 น.</t>
+  </si>
+  <si>
+    <t>14.15 น.</t>
+  </si>
+  <si>
+    <t>14.30 น.</t>
+  </si>
+  <si>
+    <t>14.45 น.</t>
+  </si>
+  <si>
+    <t>15.00 น.</t>
+  </si>
+  <si>
+    <t>15.15 น.</t>
+  </si>
+  <si>
+    <t>15.30 น.</t>
+  </si>
+  <si>
+    <t>15.45 น.</t>
+  </si>
+  <si>
+    <t>16.00 น.</t>
+  </si>
+  <si>
+    <t>16.15 น.</t>
+  </si>
+  <si>
+    <t>16.30 น.</t>
+  </si>
+  <si>
+    <t>16.45 น.</t>
+  </si>
+  <si>
+    <t>17.00 น.</t>
+  </si>
+  <si>
+    <t>17.15 น.</t>
+  </si>
+  <si>
+    <t>17.30 น.</t>
+  </si>
+  <si>
+    <t>17.45 น.</t>
+  </si>
+  <si>
+    <t>ช่วงเช้า ตั้งแต่เวลา 9.30 น. และช่วงบ่ายตั้งแต่เวลา 13.30 น.</t>
+  </si>
+  <si>
+    <t>ช่วงเช้า ตั้งแต่เวลา 9.30 น</t>
+  </si>
+  <si>
+    <t>ช่วงบ่ายตั้งแต่เวลา 13.30 น.</t>
+  </si>
+  <si>
+    <t>OC2260212</t>
+  </si>
+  <si>
+    <t>18.45 น.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -63,7 +201,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,15 +209,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -95,7 +263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -391,37 +559,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707B8394-6504-4B0B-8511-1BFA99CA649F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>62101</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1">
+        <v>58096</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>58143</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>61354</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>45035</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>61086</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>49012</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>58163</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>58034</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>59079</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>57026</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>55013</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>55032</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>61188</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>61214</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>62511</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>62724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>62739</v>
-      </c>
+      <c r="C25" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/3.xlsx
+++ b/app/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\HRCI\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60131DCA-2C29-4B97-9086-D17A5186C4E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B89DE9-DC94-41BE-AD0E-D452C4F41E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>10.30 น.</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>18.45 น.</t>
+  </si>
+  <si>
+    <t>19.45 น.</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -835,7 +838,7 @@
         <v>45</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">

--- a/app/3.xlsx
+++ b/app/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\HRCI\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B89DE9-DC94-41BE-AD0E-D452C4F41E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316D69D8-405A-41CD-BB16-28080FF1297A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>10.30 น.</t>
   </si>
@@ -51,9 +51,6 @@
     <t>62770</t>
   </si>
   <si>
-    <t>60043</t>
-  </si>
-  <si>
     <t>61372</t>
   </si>
   <si>
@@ -81,12 +78,6 @@
     <t>60105</t>
   </si>
   <si>
-    <t>60242</t>
-  </si>
-  <si>
-    <t>61198</t>
-  </si>
-  <si>
     <t>61187</t>
   </si>
   <si>
@@ -166,15 +157,6 @@
   </si>
   <si>
     <t>ช่วงบ่ายตั้งแต่เวลา 13.30 น.</t>
-  </si>
-  <si>
-    <t>OC2260212</t>
-  </si>
-  <si>
-    <t>18.45 น.</t>
-  </si>
-  <si>
-    <t>19.45 น.</t>
   </si>
 </sst>
 </file>
@@ -565,7 +547,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -578,13 +560,13 @@
         <v>62101</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1">
         <v>58096</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -592,13 +574,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>58143</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -606,13 +588,13 @@
         <v>61354</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>45035</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -620,13 +602,13 @@
         <v>61086</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>49012</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,7 +622,7 @@
         <v>58163</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -648,13 +630,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>58034</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -662,13 +644,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>59079</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -676,137 +658,137 @@
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>57026</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
+      <c r="A9" s="1">
+        <v>60043</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>55013</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>55032</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>60242</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>61198</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>61037</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,7 +796,7 @@
         <v>61188</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,24 +804,16 @@
         <v>61214</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>62511</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>

--- a/app/3.xlsx
+++ b/app/3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\HRCI\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B89DE9-DC94-41BE-AD0E-D452C4F41E66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BF393D-45D7-40B5-B9AC-470214163008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
+    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>10.30 น.</t>
   </si>
@@ -168,13 +168,13 @@
     <t>ช่วงบ่ายตั้งแต่เวลา 13.30 น.</t>
   </si>
   <si>
-    <t>OC2260212</t>
-  </si>
-  <si>
-    <t>18.45 น.</t>
-  </si>
-  <si>
-    <t>19.45 น.</t>
+    <t>PC2155031</t>
+  </si>
+  <si>
+    <t>OC2247033</t>
+  </si>
+  <si>
+    <t>OB1860368</t>
   </si>
 </sst>
 </file>
@@ -204,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -227,11 +227,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,6 +270,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,7 +589,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -577,6 +601,9 @@
       <c r="A1" s="3">
         <v>62101</v>
       </c>
+      <c r="B1">
+        <v>62296</v>
+      </c>
       <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
@@ -591,6 +618,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>57071</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
@@ -605,6 +635,9 @@
       <c r="A3" s="1">
         <v>61354</v>
       </c>
+      <c r="B3">
+        <v>57071</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
@@ -619,6 +652,9 @@
       <c r="A4" s="1">
         <v>61086</v>
       </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
       <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
@@ -633,6 +669,9 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B5">
+        <v>57026</v>
+      </c>
       <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
@@ -647,6 +686,9 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B6">
+        <v>60033</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
@@ -661,6 +703,9 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
@@ -675,6 +720,9 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B8">
+        <v>61551</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
@@ -689,6 +737,9 @@
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
       <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
@@ -703,6 +754,9 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B10">
+        <v>57071</v>
+      </c>
       <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
@@ -717,6 +771,9 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B11">
+        <v>61551</v>
+      </c>
       <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
@@ -725,6 +782,9 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B12">
+        <v>59141</v>
+      </c>
       <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
@@ -733,6 +793,9 @@
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B13">
+        <v>58088</v>
+      </c>
       <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
@@ -741,6 +804,9 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B14">
+        <v>58088</v>
+      </c>
       <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
@@ -749,6 +815,9 @@
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B15">
+        <v>58088</v>
+      </c>
       <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
@@ -757,6 +826,9 @@
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B16">
+        <v>59187</v>
+      </c>
       <c r="C16" s="5" t="s">
         <v>33</v>
       </c>
@@ -765,6 +837,9 @@
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
       <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
@@ -773,6 +848,9 @@
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B18">
+        <v>57061</v>
+      </c>
       <c r="C18" s="5" t="s">
         <v>35</v>
       </c>
@@ -781,6 +859,9 @@
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B19">
+        <v>57065</v>
+      </c>
       <c r="C19" s="5" t="s">
         <v>36</v>
       </c>
@@ -789,6 +870,9 @@
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B20">
+        <v>58163</v>
+      </c>
       <c r="C20" s="5" t="s">
         <v>37</v>
       </c>
@@ -797,6 +881,9 @@
       <c r="A21" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B21">
+        <v>59187</v>
+      </c>
       <c r="C21" s="5" t="s">
         <v>38</v>
       </c>
@@ -805,6 +892,9 @@
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B22">
+        <v>59187</v>
+      </c>
       <c r="C22" s="5" t="s">
         <v>39</v>
       </c>
@@ -813,6 +903,9 @@
       <c r="A23" s="1">
         <v>61188</v>
       </c>
+      <c r="B23">
+        <v>59187</v>
+      </c>
       <c r="C23" s="5" t="s">
         <v>40</v>
       </c>
@@ -821,25 +914,20 @@
       <c r="A24" s="1">
         <v>61214</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24">
+        <v>59187</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>62511</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="A26" s="6"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>

--- a/app/3.xlsx
+++ b/app/3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\HRCI\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkapat\Desktop\HRCI\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BF393D-45D7-40B5-B9AC-470214163008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73A6672-1956-4278-8ED7-D5BD2551CAFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>10.30 น.</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>OB1860368</t>
+  </si>
+  <si>
+    <t>OC2260212</t>
   </si>
 </sst>
 </file>
@@ -185,13 +188,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -240,20 +243,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,10 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -290,7 +283,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -588,13 +581,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707B8394-6504-4B0B-8511-1BFA99CA649F}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -777,6 +770,12 @@
       <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="E11">
+        <v>62511</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -788,6 +787,12 @@
       <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -922,8 +927,12 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="C25" s="9"/>
+      <c r="A25" s="6">
+        <v>62511</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>

--- a/app/3.xlsx
+++ b/app/3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkapat\Desktop\HRCI\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\HRCI\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73A6672-1956-4278-8ED7-D5BD2551CAFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAA1AA1-4706-43F5-A012-B1F5671DA590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>10.30 น.</t>
   </si>
@@ -42,12 +42,6 @@
     <t>61496</t>
   </si>
   <si>
-    <t>58171</t>
-  </si>
-  <si>
-    <t>60411</t>
-  </si>
-  <si>
     <t>62770</t>
   </si>
   <si>
@@ -57,108 +51,36 @@
     <t>61372</t>
   </si>
   <si>
-    <t>58172</t>
-  </si>
-  <si>
-    <t>61089</t>
-  </si>
-  <si>
     <t>60097</t>
   </si>
   <si>
-    <t>60202</t>
-  </si>
-  <si>
-    <t>60369</t>
-  </si>
-  <si>
-    <t>61037</t>
-  </si>
-  <si>
-    <t>60177</t>
-  </si>
-  <si>
-    <t>60105</t>
-  </si>
-  <si>
-    <t>60242</t>
-  </si>
-  <si>
-    <t>61198</t>
-  </si>
-  <si>
-    <t>61187</t>
-  </si>
-  <si>
-    <t>09.30 น.</t>
-  </si>
-  <si>
-    <t>09.45 น.</t>
-  </si>
-  <si>
-    <t>10.00 น.</t>
-  </si>
-  <si>
-    <t>10.15 น.</t>
-  </si>
-  <si>
-    <t>10.45 น.</t>
-  </si>
-  <si>
     <t>13.30 น.</t>
   </si>
   <si>
-    <t>13.45 น.</t>
-  </si>
-  <si>
     <t>14.00 น.</t>
   </si>
   <si>
-    <t>14.15 น.</t>
-  </si>
-  <si>
     <t>14.30 น.</t>
   </si>
   <si>
-    <t>14.45 น.</t>
-  </si>
-  <si>
     <t>15.00 น.</t>
   </si>
   <si>
-    <t>15.15 น.</t>
-  </si>
-  <si>
     <t>15.30 น.</t>
   </si>
   <si>
-    <t>15.45 น.</t>
-  </si>
-  <si>
     <t>16.00 น.</t>
   </si>
   <si>
-    <t>16.15 น.</t>
-  </si>
-  <si>
     <t>16.30 น.</t>
   </si>
   <si>
-    <t>16.45 น.</t>
-  </si>
-  <si>
     <t>17.00 น.</t>
   </si>
   <si>
-    <t>17.15 น.</t>
-  </si>
-  <si>
     <t>17.30 น.</t>
   </si>
   <si>
-    <t>17.45 น.</t>
-  </si>
-  <si>
     <t>ช่วงเช้า ตั้งแต่เวลา 9.30 น. และช่วงบ่ายตั้งแต่เวลา 13.30 น.</t>
   </si>
   <si>
@@ -168,43 +90,100 @@
     <t>ช่วงบ่ายตั้งแต่เวลา 13.30 น.</t>
   </si>
   <si>
-    <t>PC2155031</t>
-  </si>
-  <si>
-    <t>OC2247033</t>
-  </si>
-  <si>
-    <t>OB1860368</t>
-  </si>
-  <si>
     <t>OC2260212</t>
+  </si>
+  <si>
+    <t>61426</t>
+  </si>
+  <si>
+    <t>61142</t>
+  </si>
+  <si>
+    <t>60313</t>
+  </si>
+  <si>
+    <t>62877</t>
+  </si>
+  <si>
+    <t>61084</t>
+  </si>
+  <si>
+    <t>61394</t>
+  </si>
+  <si>
+    <t>61335</t>
+  </si>
+  <si>
+    <t>61348</t>
+  </si>
+  <si>
+    <t>61371</t>
+  </si>
+  <si>
+    <t>61585</t>
+  </si>
+  <si>
+    <t>9.30น.</t>
+  </si>
+  <si>
+    <t>10.00น.</t>
+  </si>
+  <si>
+    <t>11.00น.</t>
+  </si>
+  <si>
+    <t>11.30น.</t>
+  </si>
+  <si>
+    <t>18.30 น.</t>
+  </si>
+  <si>
+    <t>19.00 น.</t>
+  </si>
+  <si>
+    <t>19.30 น.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="187" formatCode="[$-D000000]h:mm\ &quot;น.&quot;;@"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -247,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,19 +234,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -283,7 +268,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -581,365 +566,265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707B8394-6504-4B0B-8511-1BFA99CA649F}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
-        <v>62101</v>
-      </c>
-      <c r="B1">
-        <v>62296</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>19</v>
+      <c r="A1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="E1">
         <v>58096</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>57071</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>20</v>
+      <c r="A2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="E2">
         <v>58143</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>61354</v>
-      </c>
-      <c r="B3">
-        <v>57071</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="E3">
         <v>45035</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>61086</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="E4">
         <v>49012</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>57026</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="E5">
         <v>58163</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>60033</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
+      <c r="A6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="E6">
         <v>58034</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
+      <c r="A7" s="8">
+        <v>61354</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="E7">
         <v>59079</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>61551</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
+      <c r="A8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="E8">
         <v>57026</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>10</v>
       </c>
       <c r="E9">
         <v>55013</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>57071</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
+      <c r="A10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="E10">
         <v>55032</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>61551</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
+      <c r="A11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="E11">
         <v>62511</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>59141</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>58088</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>58088</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>58088</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>59187</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
+      <c r="C17" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>57061</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>35</v>
+      <c r="A18" s="4">
+        <v>62511</v>
+      </c>
+      <c r="C18" s="3">
+        <v>19.45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>57065</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>58163</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>59187</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22">
-        <v>59187</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>61188</v>
-      </c>
-      <c r="B23">
-        <v>59187</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>61214</v>
-      </c>
-      <c r="B24">
-        <v>59187</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>62511</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="4"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>

--- a/app/3.xlsx
+++ b/app/3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\HRCI\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkapat\Desktop\HRCI\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAA1AA1-4706-43F5-A012-B1F5671DA590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A883461C-52A3-48C2-8BB5-464396E82010}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>10.30 น.</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>19.30 น.</t>
+  </si>
+  <si>
+    <t>9.30 น.</t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>Hall</t>
   </si>
 </sst>
 </file>
@@ -149,18 +158,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="187" formatCode="[$-D000000]h:mm\ &quot;น.&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="[$-D000000]h:mm\ &quot;น.&quot;;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +191,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,14 +266,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -268,7 +296,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -564,23 +592,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707B8394-6504-4B0B-8511-1BFA99CA649F}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>30</v>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="13">
+        <v>60179</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="E1">
         <v>58096</v>
@@ -588,12 +619,21 @@
       <c r="G1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="N1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>60336</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E2">
@@ -602,12 +642,21 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="N2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13">
+        <v>61296</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="E3">
@@ -616,13 +665,22 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>32</v>
+      <c r="N3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>61290</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="E4">
         <v>49012</v>
@@ -630,13 +688,22 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>33</v>
+      <c r="N4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>62574</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="E5">
         <v>58163</v>
@@ -644,13 +711,22 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>7</v>
+      <c r="N5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>61555</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="E6">
         <v>58034</v>
@@ -658,13 +734,22 @@
       <c r="G6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>61354</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>8</v>
+      <c r="N6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>61089</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="E7">
         <v>59079</v>
@@ -672,13 +757,22 @@
       <c r="G7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>9</v>
+      <c r="N7" s="8">
+        <v>61354</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>60242</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="E8">
         <v>57026</v>
@@ -686,13 +780,22 @@
       <c r="G8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>10</v>
+      <c r="N8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>59254</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="E9">
         <v>55013</v>
@@ -700,13 +803,22 @@
       <c r="G9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>11</v>
+      <c r="N9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>62511</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3">
+        <v>19.45</v>
       </c>
       <c r="E10">
         <v>55032</v>
@@ -714,119 +826,121 @@
       <c r="G10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="N10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>62511</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>13</v>
-      </c>
+      <c r="N11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>19</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="N12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="O13" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="O14" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="O15" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="O16" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="O17" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>62511</v>
-      </c>
-      <c r="C18" s="3">
-        <v>19.45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
   </sheetData>

--- a/app/3.xlsx
+++ b/app/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkapat\Desktop\HRCI\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E6DFCC-A898-4CE1-B165-60230BC98236}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A62D00-1354-4C22-BA73-D65DB367D25D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>10.30 น.</t>
   </si>
@@ -157,12 +157,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-D000000]h:mm\ &quot;น.&quot;;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,10 +236,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,9 +271,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ 2" xfId="1" xr:uid="{24F4A6EB-D538-4AAA-A5F5-64494515F982}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -576,26 +588,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707B8394-6504-4B0B-8511-1BFA99CA649F}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="13">
-        <v>60179</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>36</v>
+    <row r="1" spans="1:15">
+      <c r="A1" s="16">
+        <v>19053</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="E1">
         <v>58096</v>
@@ -610,15 +622,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>60336</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>19</v>
+    <row r="2" spans="1:15">
+      <c r="A2" s="16">
+        <v>19060</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="E2">
         <v>58143</v>
@@ -633,15 +645,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>61296</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>0</v>
+    <row r="3" spans="1:15">
+      <c r="A3" s="16">
+        <v>19055</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="E3">
         <v>45035</v>
@@ -656,16 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>61290</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>6</v>
-      </c>
+    <row r="4" spans="1:15">
       <c r="D4">
         <v>1</v>
       </c>
@@ -682,16 +685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>62574</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>7</v>
-      </c>
+    <row r="5" spans="1:15">
       <c r="E5">
         <v>58163</v>
       </c>
@@ -705,16 +699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>61555</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>8</v>
-      </c>
+    <row r="6" spans="1:15">
       <c r="E6">
         <v>58034</v>
       </c>
@@ -728,16 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>61089</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="1:15">
       <c r="E7">
         <v>59079</v>
       </c>
@@ -751,16 +727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>60242</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>10</v>
-      </c>
+    <row r="8" spans="1:15">
       <c r="D8">
         <v>1</v>
       </c>
@@ -777,16 +744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>59254</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>11</v>
-      </c>
+    <row r="9" spans="1:15">
       <c r="D9">
         <v>1</v>
       </c>
@@ -803,7 +761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="E10">
         <v>55032</v>
       </c>
@@ -817,7 +775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="N11" s="8" t="s">
         <v>29</v>
       </c>
@@ -825,7 +783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="N12" s="8" t="s">
         <v>30</v>
       </c>
@@ -833,7 +791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="N13" s="8" t="s">
         <v>31</v>
       </c>
@@ -841,7 +799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="N14" s="8" t="s">
         <v>32</v>
       </c>
@@ -849,7 +807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="N15" s="8" t="s">
         <v>33</v>
       </c>
@@ -857,7 +815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="N16" s="8" t="s">
         <v>34</v>
       </c>
@@ -865,7 +823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="N17" s="8" t="s">
         <v>35</v>
       </c>
@@ -873,46 +831,127 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="A18" s="9"/>
       <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N18" s="13">
+        <v>60179</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="9"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="13">
+        <v>60336</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="9"/>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N20" s="13">
+        <v>61296</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="9"/>
       <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N21" s="14">
+        <v>61290</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1"/>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N22" s="14">
+        <v>62574</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1"/>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N23" s="14">
+        <v>61555</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1"/>
       <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N24" s="14">
+        <v>61089</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="4"/>
       <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N25" s="14">
+        <v>60242</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="4"/>
       <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N26" s="14">
+        <v>59254</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="5"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="2"/>
     </row>
   </sheetData>

--- a/app/3.xlsx
+++ b/app/3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakkapat\Desktop\HRCI\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\HRCI\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A883461C-52A3-48C2-8BB5-464396E82010}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E80FA38-4F5B-471E-B79A-C2904AFA909D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
+    <workbookView xWindow="4080" yWindow="1272" windowWidth="17280" windowHeight="8964" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>10.30 น.</t>
   </si>
@@ -151,6 +151,45 @@
   </si>
   <si>
     <t>Hall</t>
+  </si>
+  <si>
+    <t>IM1460182</t>
+  </si>
+  <si>
+    <t>IM1458168</t>
+  </si>
+  <si>
+    <t>IM1459010</t>
+  </si>
+  <si>
+    <t>IM1460204</t>
+  </si>
+  <si>
+    <t>IM1462019</t>
+  </si>
+  <si>
+    <t>IM1458094</t>
+  </si>
+  <si>
+    <t>IM1459240</t>
+  </si>
+  <si>
+    <t>9.50 น.</t>
+  </si>
+  <si>
+    <t>10.10 น.</t>
+  </si>
+  <si>
+    <t>10.50 น.</t>
+  </si>
+  <si>
+    <t>11.10น.</t>
+  </si>
+  <si>
+    <t>11.30 น.</t>
+  </si>
+  <si>
+    <t>11.00 น.</t>
   </si>
 </sst>
 </file>
@@ -158,18 +197,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-D000000]h:mm\ &quot;น.&quot;;@"/>
+    <numFmt numFmtId="187" formatCode="[$-D000000]h:mm\ &quot;น.&quot;;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +251,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9CD90"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -243,11 +294,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,7 +343,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -278,9 +355,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -296,7 +380,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -592,25 +676,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707B8394-6504-4B0B-8511-1BFA99CA649F}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="13">
-        <v>60179</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="15" t="s">
+    <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E1">
@@ -626,15 +708,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
-        <v>60336</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>31</v>
+    <row r="2" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="E2">
         <v>58143</v>
@@ -649,15 +728,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
-        <v>61296</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>0</v>
+    <row r="3" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="E3">
         <v>45035</v>
@@ -672,15 +748,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>61290</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>7</v>
+    <row r="4" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="E4">
         <v>49012</v>
@@ -695,15 +768,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>62574</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>8</v>
+    <row r="5" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="E5">
         <v>58163</v>
@@ -718,15 +788,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>61555</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>9</v>
+    <row r="6" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="E6">
         <v>58034</v>
@@ -741,15 +808,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>61089</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>10</v>
+    <row r="7" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>0</v>
       </c>
       <c r="E7">
         <v>59079</v>
@@ -765,14 +829,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>60242</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>11</v>
+      <c r="A8">
+        <v>62511</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="E8">
         <v>57026</v>
@@ -787,16 +848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>59254</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>12</v>
-      </c>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>55013</v>
       </c>
@@ -810,16 +862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>62511</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="3">
-        <v>19.45</v>
-      </c>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>55032</v>
       </c>
@@ -833,7 +876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>62511</v>
       </c>
@@ -847,7 +890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>19</v>
       </c>
@@ -861,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="N13" s="9" t="s">
         <v>25</v>
       </c>
@@ -869,7 +912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="N14" s="9" t="s">
         <v>26</v>
       </c>
@@ -877,7 +920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="N15" s="9" t="s">
         <v>27</v>
       </c>
@@ -885,7 +928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="N16" s="9" t="s">
         <v>28</v>
       </c>
@@ -893,7 +936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="N17" s="9" t="s">
         <v>29</v>
       </c>
@@ -901,49 +944,140 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="13">
+        <v>60179</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N20" s="13">
+        <v>60336</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N21" s="13">
+        <v>61296</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N22" s="14">
+        <v>61290</v>
+      </c>
+      <c r="O22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N23" s="14">
+        <v>62574</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N24" s="14">
+        <v>61555</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N25" s="14">
+        <v>61089</v>
+      </c>
+      <c r="O25" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N26" s="14">
+        <v>60242</v>
+      </c>
+      <c r="O26" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N27" s="14">
+        <v>59254</v>
+      </c>
+      <c r="O27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
+      <c r="N28" s="4">
+        <v>62511</v>
+      </c>
+      <c r="O28" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P28" s="3">
+        <v>19.45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/3.xlsx
+++ b/app/3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\HRCI\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E80FA38-4F5B-471E-B79A-C2904AFA909D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9375335-5EEA-48D7-8A60-6130E8BF2678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1272" windowWidth="17280" windowHeight="8964" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CA088287-15DF-4387-98C4-15D915526420}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>10.30 น.</t>
   </si>
@@ -190,6 +190,96 @@
   </si>
   <si>
     <t>11.00 น.</t>
+  </si>
+  <si>
+    <t>OB1862156</t>
+  </si>
+  <si>
+    <t>OB1861072</t>
+  </si>
+  <si>
+    <t>OB1818019</t>
+  </si>
+  <si>
+    <t>OB1861429</t>
+  </si>
+  <si>
+    <t>TM661011</t>
+  </si>
+  <si>
+    <t>TM660004</t>
+  </si>
+  <si>
+    <t>TM661006</t>
+  </si>
+  <si>
+    <t>TM661028</t>
+  </si>
+  <si>
+    <t>TM662008</t>
+  </si>
+  <si>
+    <t>TM662007</t>
+  </si>
+  <si>
+    <t>OLS759181</t>
+  </si>
+  <si>
+    <t>IM1461013</t>
+  </si>
+  <si>
+    <t>NP961201</t>
+  </si>
+  <si>
+    <t>NP961003</t>
+  </si>
+  <si>
+    <t>NP961002</t>
+  </si>
+  <si>
+    <t>NP961004</t>
+  </si>
+  <si>
+    <t>IG461269</t>
+  </si>
+  <si>
+    <t>IG460002</t>
+  </si>
+  <si>
+    <t>8.30 น.</t>
+  </si>
+  <si>
+    <t>8.50 น.</t>
+  </si>
+  <si>
+    <t>9.10 น.</t>
+  </si>
+  <si>
+    <t>11.10 น.</t>
+  </si>
+  <si>
+    <t>9.00 น.</t>
+  </si>
+  <si>
+    <t>9.20 น.</t>
+  </si>
+  <si>
+    <t>9.40 น.</t>
+  </si>
+  <si>
+    <t>10.00 น.</t>
+  </si>
+  <si>
+    <t>10.20 น.</t>
+  </si>
+  <si>
+    <t>10.40 น.</t>
+  </si>
+  <si>
+    <t>11.20 น.</t>
+  </si>
+  <si>
+    <t>ห้อง2</t>
   </si>
 </sst>
 </file>
@@ -199,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="187" formatCode="[$-D000000]h:mm\ &quot;น.&quot;;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +303,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,8 +353,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -309,22 +411,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,8 +450,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707B8394-6504-4B0B-8511-1BFA99CA649F}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -687,13 +781,13 @@
     <col min="1" max="1" width="11.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16" t="s">
-        <v>37</v>
+    <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="E1">
         <v>58096</v>
@@ -708,12 +802,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>47</v>
+    <row r="2" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="E2">
         <v>58143</v>
@@ -728,12 +823,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>48</v>
+    <row r="3" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="E3">
         <v>45035</v>
@@ -748,12 +844,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>49</v>
+    <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="E4">
         <v>49012</v>
@@ -768,12 +865,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>50</v>
+    <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="E5">
         <v>58163</v>
@@ -788,12 +886,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>51</v>
+    <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="E6">
         <v>58034</v>
@@ -808,11 +907,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="16" t="s">
+    <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E7">
@@ -828,12 +928,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>62511</v>
-      </c>
+    <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>57026</v>
@@ -848,7 +949,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18" t="s">
+        <v>74</v>
+      </c>
       <c r="E9">
         <v>55013</v>
       </c>
@@ -862,7 +970,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="E10">
         <v>55032</v>
       </c>
@@ -876,7 +991,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>62511</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="E11">
         <v>62511</v>
       </c>
@@ -890,7 +1011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>19</v>
       </c>
@@ -904,7 +1025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N13" s="9" t="s">
         <v>25</v>
       </c>
@@ -912,7 +1033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N14" s="9" t="s">
         <v>26</v>
       </c>
@@ -920,7 +1041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N15" s="9" t="s">
         <v>27</v>
       </c>
@@ -928,7 +1049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N16" s="9" t="s">
         <v>28</v>
       </c>
@@ -936,7 +1057,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N17" s="9" t="s">
         <v>29</v>
       </c>
@@ -944,13 +1065,29 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="C19" s="3"/>
+      <c r="H19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="N19" s="13">
         <v>60179</v>
       </c>
@@ -961,9 +1098,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="C20" s="3"/>
+      <c r="H20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="N20" s="13">
         <v>60336</v>
       </c>
@@ -974,9 +1120,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="C21" s="3"/>
+      <c r="H21" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>78</v>
+      </c>
       <c r="N21" s="13">
         <v>61296</v>
       </c>
@@ -987,9 +1142,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="C22" s="3"/>
+      <c r="H22" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="N22" s="14">
         <v>61290</v>
       </c>
@@ -1000,9 +1164,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="C23" s="3"/>
+      <c r="H23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="N23" s="14">
         <v>62574</v>
       </c>
@@ -1013,9 +1186,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="C24" s="6"/>
+      <c r="H24" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="N24" s="14">
         <v>61555</v>
       </c>
@@ -1026,9 +1208,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="C25" s="6"/>
+      <c r="H25" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>81</v>
+      </c>
       <c r="N25" s="14">
         <v>61089</v>
       </c>
@@ -1039,7 +1230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="C26" s="5"/>
       <c r="N26" s="14">
@@ -1052,7 +1243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="N27" s="14">
         <v>59254</v>
@@ -1064,7 +1255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="N28" s="4">
         <v>62511</v>
@@ -1074,6 +1265,64 @@
       </c>
       <c r="P28" s="3">
         <v>19.45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="14:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" s="17"/>
+      <c r="P33" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="14:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="P34" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="14:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="14:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="14:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N37" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="14:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N38" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P38" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="14:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N39" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="P39" s="16" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
